--- a/public/excel/专业信息上传模板.xlsx
+++ b/public/excel/专业信息上传模板.xlsx
@@ -1,38 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\resource\cqut\导入表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H3C\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D277-0349-448A-BDC9-DF12372ECE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A35721-E2AB-4244-87BB-9B19017AB4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16455" yWindow="3405" windowWidth="20325" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="专业信息" sheetId="1" r:id="rId1"/>
+    <sheet name="课时信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>20240101</t>
+  </si>
+  <si>
+    <t>id（不填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>专业编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>专业名称</t>
-  </si>
-  <si>
-    <t>生物化学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id（不填）</t>
+    <t>计算机科学与技术</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -459,48 +468,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
-        <v>1010</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
